--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\托福\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4075F9-FFEA-4130-8C9E-8088D84FF75B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF76ACE-B907-4549-9898-1DE3A646B9A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list7" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="1477">
   <si>
     <t>单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4088,10 +4088,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hamper</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4176,10 +4172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>榛数的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>heed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4188,10 +4180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加厚跟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>heir</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4256,10 +4244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hiberante</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hide</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5949,6 +5933,30 @@
   </si>
   <si>
     <t>marsh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>facilitate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使容易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榛树的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚后跟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hibernate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6310,7 +6318,7 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D47" ca="1" si="0">RAND()</f>
-        <v>0.92237462359651257</v>
+        <v>8.7980389945195636E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -6325,7 +6333,7 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24861870905322547</v>
+        <v>0.75402138298451116</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -6340,7 +6348,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56959834454718428</v>
+        <v>0.67226992562201737</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -6355,7 +6363,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12696173573732061</v>
+        <v>0.39744092710868006</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -6370,7 +6378,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82280468954241659</v>
+        <v>0.21830399161529557</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -6385,7 +6393,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26050115782858763</v>
+        <v>0.21883779393676939</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -6400,7 +6408,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5370544736804796E-2</v>
+        <v>0.9856758062454456</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -6415,7 +6423,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6833059092744422E-2</v>
+        <v>0.67383809696144426</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -6430,7 +6438,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18724217870142257</v>
+        <v>0.31628551704265007</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -6445,7 +6453,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16842578091373217</v>
+        <v>0.4458071449713189</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -6460,7 +6468,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79140646217958843</v>
+        <v>0.74388181573689616</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -6475,7 +6483,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4097584235735749E-2</v>
+        <v>2.3952485210294805E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -6490,7 +6498,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26414415089308008</v>
+        <v>0.45029785239508757</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -6505,7 +6513,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67537634891308607</v>
+        <v>0.74836919404426194</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -6520,7 +6528,7 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60976450905945934</v>
+        <v>0.95117716572603916</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -6535,7 +6543,7 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81192238861466226</v>
+        <v>0.34270497000152478</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -6550,7 +6558,7 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4180318771487691</v>
+        <v>0.85774028197772856</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -6565,7 +6573,7 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25783033432316127</v>
+        <v>0.2396614563457542</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -6577,7 +6585,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41055390701008765</v>
+        <v>0.53301077998742108</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -6589,7 +6597,7 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51756373913440024</v>
+        <v>0.13814100366673288</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -6601,7 +6609,7 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3160368931049344E-2</v>
+        <v>0.12765576684195767</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -6613,7 +6621,7 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22427669334779143</v>
+        <v>0.41392053318920452</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -6625,7 +6633,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81796234241827093</v>
+        <v>0.40152872169184262</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -6637,7 +6645,7 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56083343682413289</v>
+        <v>0.99965150820506243</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -6649,7 +6657,7 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5104140624843021</v>
+        <v>0.83640390750231619</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -6661,7 +6669,7 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14649102212227538</v>
+        <v>0.92503035475421524</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -6673,7 +6681,7 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37465157525465276</v>
+        <v>0.1845789808196987</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -6685,7 +6693,7 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59526655105126336</v>
+        <v>0.80353726653617408</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -6697,7 +6705,7 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59235416835617982</v>
+        <v>0.84262612135555892</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -6709,7 +6717,7 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55851782910251002</v>
+        <v>0.66462244970445306</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -6721,7 +6729,7 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67968350269982158</v>
+        <v>0.52229237349654412</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
@@ -6733,7 +6741,7 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81001135554230241</v>
+        <v>7.2212129229495714E-2</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
@@ -6745,7 +6753,7 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87730209460187092</v>
+        <v>0.23128170726511776</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
@@ -6757,7 +6765,7 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57769827184828915</v>
+        <v>0.45026722459521207</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
@@ -6769,7 +6777,7 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82740867062504442</v>
+        <v>0.10307573672445025</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
@@ -6781,7 +6789,7 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81799990200967643</v>
+        <v>0.42305288020185394</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
@@ -6793,7 +6801,7 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9678850661514127E-2</v>
+        <v>0.47003291311411188</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
@@ -6805,7 +6813,7 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69020651745138173</v>
+        <v>1.2504759710191382E-2</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
@@ -6817,7 +6825,7 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.138670993486259</v>
+        <v>0.81687627806555141</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
@@ -6829,7 +6837,7 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68835074426256349</v>
+        <v>0.30796689133017108</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
@@ -6841,7 +6849,7 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88816926450156153</v>
+        <v>0.41538727714327028</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
@@ -6853,7 +6861,7 @@
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62551131617190814</v>
+        <v>0.78002334196784351</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
@@ -6865,7 +6873,7 @@
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86405224740425235</v>
+        <v>0.63595221326695461</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
@@ -6877,7 +6885,7 @@
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82670773004781706</v>
+        <v>2.7205297290122665E-4</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
@@ -6889,7 +6897,7 @@
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34018971554461075</v>
+        <v>0.89888328300980136</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
@@ -6901,7 +6909,7 @@
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66927568936259108</v>
+        <v>2.6134840936700932E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6952,7 +6960,7 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D42" ca="1" si="0">RAND()</f>
-        <v>0.22415181999150924</v>
+        <v>0.5448815771964397</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -6967,7 +6975,7 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85810755572215336</v>
+        <v>0.52337666092143575</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -6982,7 +6990,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4839896053954913E-2</v>
+        <v>0.62178532863732794</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -6997,7 +7005,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10965841319688985</v>
+        <v>0.61250138801183474</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -7012,7 +7020,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.265383025768831E-2</v>
+        <v>0.7704193633791504</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -7027,7 +7035,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96040039143208633</v>
+        <v>0.32502588439725166</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -7042,7 +7050,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46512443424692318</v>
+        <v>0.14595678069508489</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -7057,7 +7065,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56527748990609261</v>
+        <v>0.66894867259954316</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -7072,7 +7080,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37490253617539326</v>
+        <v>9.8483934706619203E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -7087,7 +7095,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44705171431776203</v>
+        <v>0.48021444830419846</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -7102,7 +7110,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45835389189143549</v>
+        <v>0.84404694880696507</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -7117,7 +7125,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46785630525694477</v>
+        <v>0.73357301611335346</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -7132,7 +7140,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33837708103203101</v>
+        <v>0.90931759365764664</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -7147,7 +7155,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19222428732157359</v>
+        <v>3.9126747325033628E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -7162,7 +7170,7 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17231650321843395</v>
+        <v>0.81962806903270979</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -7177,7 +7185,7 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84151068392948947</v>
+        <v>0.9173608786463654</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -7192,7 +7200,7 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17266492408863665</v>
+        <v>0.28738753646849224</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -7204,7 +7212,7 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98664591565763926</v>
+        <v>0.3024743088705748</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -7216,7 +7224,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79413871088710219</v>
+        <v>0.71931759104464321</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -7228,7 +7236,7 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82424787108215203</v>
+        <v>0.99113246323634052</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -7240,7 +7248,7 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89374265873553871</v>
+        <v>0.5624056950235472</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -7252,7 +7260,7 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4476843622366267E-2</v>
+        <v>0.48866226085691333</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -7264,7 +7272,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35975494473741454</v>
+        <v>0.53893582171362553</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -7276,7 +7284,7 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58832237185049219</v>
+        <v>0.36273186959233761</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -7288,7 +7296,7 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95708187473929984</v>
+        <v>0.72439409161102264</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -7300,7 +7308,7 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1257302379054962</v>
+        <v>9.6218819336308714E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -7312,7 +7320,7 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26724821251794162</v>
+        <v>0.66525921289155399</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -7324,7 +7332,7 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39338030816369918</v>
+        <v>9.9703131127458655E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -7336,7 +7344,7 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26955392257214261</v>
+        <v>0.22309285095976927</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -7348,7 +7356,7 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8608234667783763E-2</v>
+        <v>0.4817720531179388</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -7360,7 +7368,7 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10871473794820408</v>
+        <v>0.45437841019564285</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
@@ -7372,7 +7380,7 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64174313648087378</v>
+        <v>0.79675300311201502</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
@@ -7384,7 +7392,7 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83014099215677739</v>
+        <v>9.6190342180589083E-2</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
@@ -7396,7 +7404,7 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7187636049512558</v>
+        <v>0.63042272228429996</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
@@ -7408,7 +7416,7 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25155341067327519</v>
+        <v>0.43415381589299074</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
@@ -7420,7 +7428,7 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66996503985243727</v>
+        <v>0.36591264177506144</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
@@ -7432,7 +7440,7 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80652625724481053</v>
+        <v>0.68763720345068668</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
@@ -7444,7 +7452,7 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8563735661208991E-2</v>
+        <v>0.86208616127443416</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
@@ -7456,7 +7464,7 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88104618819592984</v>
+        <v>7.3682884072737709E-3</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
@@ -7468,7 +7476,7 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76147094046101971</v>
+        <v>0.99239698001840704</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
@@ -7480,7 +7488,7 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98706532032437166</v>
+        <v>0.1705823355897611</v>
       </c>
     </row>
   </sheetData>
@@ -7494,10 +7502,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0901F128-70B9-4651-B245-1D1184961E8B}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7529,8 +7537,8 @@
         <v>743</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D43" ca="1" si="0">RAND()</f>
-        <v>0.25287896637242624</v>
+        <f t="shared" ref="D2:D44" ca="1" si="0">RAND()</f>
+        <v>0.36351948139943646</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -7545,7 +7553,7 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13180790413548449</v>
+        <v>0.18975899250447814</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -7560,7 +7568,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53462829744855056</v>
+        <v>7.4558997024471663E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -7575,7 +7583,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59312189722190112</v>
+        <v>0.32295111969324009</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -7590,7 +7598,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23295646702054595</v>
+        <v>0.13006868371806468</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -7605,7 +7613,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38010216853972389</v>
+        <v>0.72065808244574414</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -7620,7 +7628,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10787389556748916</v>
+        <v>0.50191545562031159</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -7635,7 +7643,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42786671774913476</v>
+        <v>0.21227458272867472</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -7650,7 +7658,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90542072465818113</v>
+        <v>0.73934065176855102</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -7665,7 +7673,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66333480014469048</v>
+        <v>0.8904927489241321</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -7680,7 +7688,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59659783565190949</v>
+        <v>0.88076702141548324</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -7695,7 +7703,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69837815873708531</v>
+        <v>0.18692077841926946</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -7710,7 +7718,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64846867128744645</v>
+        <v>0.30023216347384707</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -7725,7 +7733,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3187191535164503</v>
+        <v>0.88796041030178663</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -7740,7 +7748,7 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28189059938632921</v>
+        <v>0.67517737894638274</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -7755,7 +7763,7 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78927120249340654</v>
+        <v>0.62437391997990954</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -7770,7 +7778,7 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38021052199192551</v>
+        <v>0.72071279674832467</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -7782,7 +7790,7 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71448716282529556</v>
+        <v>1.7364000946027636E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -7794,7 +7802,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25238981101479996</v>
+        <v>0.73217023359009037</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -7806,7 +7814,7 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43281657247512262</v>
+        <v>0.95751233898631816</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -7818,7 +7826,7 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9710062481020945E-2</v>
+        <v>0.29390564561925181</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -7830,7 +7838,7 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20083671942514447</v>
+        <v>0.87864227143355855</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -7842,7 +7850,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61819452697898825</v>
+        <v>0.62227046809256026</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -7854,7 +7862,7 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45427967701628169</v>
+        <v>0.73635273687452485</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -7866,7 +7874,7 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18167318674665456</v>
+        <v>0.47685042310637105</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -7878,7 +7886,7 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86110242326933872</v>
+        <v>0.11471525451394149</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -7890,7 +7898,7 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2839413241791497E-2</v>
+        <v>0.93406747095425147</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -7902,7 +7910,7 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91936780943526053</v>
+        <v>0.26117238553484545</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -7914,7 +7922,7 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3347779919842887</v>
+        <v>0.27094138271074386</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -7926,7 +7934,7 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5178019735388526</v>
+        <v>0.38409166351002288</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -7938,10 +7946,10 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93560712532508972</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.19430836396635198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>768</v>
       </c>
@@ -7950,10 +7958,10 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78633627901483327</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.88371308646831181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>809</v>
       </c>
@@ -7962,10 +7970,10 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18187476219741927</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+        <v>4.9337029751816419E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>746</v>
       </c>
@@ -7974,10 +7982,10 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37118208966699018</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.54639283606194189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>815</v>
       </c>
@@ -7986,10 +7994,10 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99866806744309189</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.47262968538224148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>775</v>
       </c>
@@ -7998,10 +8006,10 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66578940348843063</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.6532110819850101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>762</v>
       </c>
@@ -8010,10 +8018,10 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34970983167942582</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.45520524006702257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>756</v>
       </c>
@@ -8022,10 +8030,10 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63050994013045714</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.84144180885203235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>823</v>
       </c>
@@ -8034,10 +8042,10 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="0"/>
-        <v>3.125757855444633E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.85948792581547351</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>799</v>
       </c>
@@ -8046,10 +8054,10 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16246260539982982</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.44884572961592417</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>805</v>
       </c>
@@ -8058,10 +8066,10 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85782409538894222</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.67547063816049158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>797</v>
       </c>
@@ -8070,7 +8078,22 @@
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61038163063986806</v>
+        <v>0.54712753241757528</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32368773167296983</v>
       </c>
     </row>
   </sheetData>
@@ -8120,7 +8143,7 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D48" ca="1" si="0">RAND()</f>
-        <v>0.8083308722534529</v>
+        <v>0.19876093597566735</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -8135,7 +8158,7 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97995689154631394</v>
+        <v>0.78870721499693708</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -8150,7 +8173,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98745582726378933</v>
+        <v>0.98440790497830266</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -8165,7 +8188,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17484048316876755</v>
+        <v>0.57767723198368881</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8180,7 +8203,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87165948501796053</v>
+        <v>0.63165369265882798</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -8195,7 +8218,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10219955078584408</v>
+        <v>0.62548311318855554</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8210,7 +8233,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91166046471099671</v>
+        <v>0.5701220643450039</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -8225,7 +8248,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94263627602158606</v>
+        <v>0.15530741802934256</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -8240,7 +8263,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62430174929323023</v>
+        <v>0.39286201177832714</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -8255,7 +8278,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68860930602832282</v>
+        <v>0.47252840222311387</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -8263,14 +8286,14 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="C12" t="s">
         <v>854</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29438301102714393</v>
+        <v>0.30208478999209065</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -8285,7 +8308,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16627638832998992</v>
+        <v>0.84170729319249127</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8300,7 +8323,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93978027873707182</v>
+        <v>0.77982404369782543</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -8315,7 +8338,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33697425010818705</v>
+        <v>0.93486844651362544</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -8327,7 +8350,7 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77203692220782161</v>
+        <v>0.59142741845117974</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -8339,7 +8362,7 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47249253563724147</v>
+        <v>0.92732448158423875</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
@@ -8351,7 +8374,7 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6004337160803219E-2</v>
+        <v>0.92490900500553563</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
@@ -8363,7 +8386,7 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75807826451446891</v>
+        <v>0.62805389066707096</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
@@ -8375,7 +8398,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21455418629439871</v>
+        <v>0.56100259789398432</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -8387,7 +8410,7 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35811727225113243</v>
+        <v>0.9243737915571747</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
@@ -8399,7 +8422,7 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50304787243936866</v>
+        <v>0.79951544520329632</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
@@ -8411,7 +8434,7 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46932392104531773</v>
+        <v>0.32644549001993783</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
@@ -8423,7 +8446,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97185904860185302</v>
+        <v>0.36145093637109749</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
@@ -8435,7 +8458,7 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7045710295586064</v>
+        <v>0.78703643357756592</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
@@ -8447,7 +8470,7 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21752160243567886</v>
+        <v>0.87519274778552314</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
@@ -8459,7 +8482,7 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7500309119277206E-3</v>
+        <v>0.87536144811520022</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
@@ -8471,7 +8494,7 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15406266752571818</v>
+        <v>0.15899619761244821</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
@@ -8483,7 +8506,7 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89878775878315476</v>
+        <v>0.24332439354786262</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
@@ -8495,7 +8518,7 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70726097799594889</v>
+        <v>0.82848177669997669</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
@@ -8507,7 +8530,7 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50665359936198884</v>
+        <v>0.82262306364678472</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
@@ -8519,7 +8542,7 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21786590085479762</v>
+        <v>0.21232325301794608</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
@@ -8531,7 +8554,7 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82331595957799097</v>
+        <v>0.86707385194982123</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
@@ -8543,7 +8566,7 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4230521742547162</v>
+        <v>0.87105686279866035</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
@@ -8555,7 +8578,7 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86319416818747452</v>
+        <v>0.21614052920416638</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
@@ -8567,7 +8590,7 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11364544447149139</v>
+        <v>7.9086430868164248E-2</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
@@ -8579,7 +8602,7 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="0"/>
-        <v>5.245113091774789E-2</v>
+        <v>0.52664036768693079</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
@@ -8591,7 +8614,7 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87000684439983977</v>
+        <v>0.65140749240377294</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
@@ -8603,7 +8626,7 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63995477119807065</v>
+        <v>0.81807819758442601</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
@@ -8615,7 +8638,7 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52556615215058489</v>
+        <v>0.11185121262161746</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
@@ -8627,7 +8650,7 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73264497353089075</v>
+        <v>0.23525078864575977</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
@@ -8639,7 +8662,7 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54416113590882953</v>
+        <v>0.16900884043656061</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
@@ -8651,7 +8674,7 @@
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89807064332987951</v>
+        <v>0.63424754456626908</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
@@ -8663,7 +8686,7 @@
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88340268727582361</v>
+        <v>0.10270959790516876</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
@@ -8675,7 +8698,7 @@
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82242434833425382</v>
+        <v>0.98411151908310601</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
@@ -8687,7 +8710,7 @@
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84978291636443681</v>
+        <v>0.40405885657785734</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
@@ -8699,7 +8722,7 @@
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57300715899013299</v>
+        <v>0.93003719123776585</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
@@ -8711,7 +8734,7 @@
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33855844305032923</v>
+        <v>0.76708241138238764</v>
       </c>
     </row>
   </sheetData>
@@ -8727,8 +8750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A73EDD-6593-44F3-90B7-EA871D36BFE2}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="B31" zoomScale="113" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8761,7 +8784,7 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D33" ca="1" si="0">RAND()</f>
-        <v>0.8161166608905025</v>
+        <v>0.11440598276817171</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -8769,14 +8792,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C3" t="s">
         <v>1019</v>
       </c>
-      <c r="C3" t="s">
-        <v>1020</v>
-      </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64956423394689311</v>
+        <v>0.81741900874767737</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -8791,7 +8814,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50783276774616559</v>
+        <v>0.83641441597215749</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -8806,7 +8829,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59040538130247677</v>
+        <v>0.2895527211413863</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8821,7 +8844,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0138591371407406E-2</v>
+        <v>0.6129623963929377</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -8836,7 +8859,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39092792075733529</v>
+        <v>0.34749382244915494</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8851,7 +8874,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46817247935958073</v>
+        <v>0.67286468736459581</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -8866,7 +8889,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14605871671782644</v>
+        <v>0.69283654157092478</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -8881,7 +8904,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22150329957364723</v>
+        <v>0.37716280657044243</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -8896,7 +8919,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5030341881258069E-2</v>
+        <v>0.23986199810763498</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -8911,7 +8934,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19041563573912779</v>
+        <v>0.29753299242990627</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -8926,7 +8949,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92074832028600906</v>
+        <v>0.85026899047297011</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8941,7 +8964,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58663499034256028</v>
+        <v>0.69230237958924312</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -8956,7 +8979,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91811064352293326</v>
+        <v>0.64815470467001368</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -8971,7 +8994,7 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62055401315581682</v>
+        <v>0.9751225205653663</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -8986,7 +9009,7 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52365323267325969</v>
+        <v>0.41551911479591142</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -9001,7 +9024,7 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40448435507598968</v>
+        <v>1.5891757655524419E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -9016,7 +9039,7 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17796045952817219</v>
+        <v>0.60448832517321394</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -9031,7 +9054,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50440896584038286</v>
+        <v>0.24581375417234663</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -9046,7 +9069,7 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28520167784286576</v>
+        <v>0.20077089788869973</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -9061,7 +9084,7 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59219857689827393</v>
+        <v>0.22268913490311493</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -9069,14 +9092,14 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C23" t="s">
         <v>1012</v>
       </c>
-      <c r="C23" t="s">
-        <v>1013</v>
-      </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26348213187135194</v>
+        <v>0.11071467761576359</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -9091,7 +9114,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73428142796200879</v>
+        <v>0.57842263387495363</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -9099,14 +9122,14 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C25" t="s">
         <v>1010</v>
       </c>
-      <c r="C25" t="s">
-        <v>1011</v>
-      </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85281448008514515</v>
+        <v>0.32799169756317337</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -9121,7 +9144,7 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92001811151784985</v>
+        <v>0.34709701518791725</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -9136,7 +9159,7 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46323149225236682</v>
+        <v>0.43308589289100119</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -9151,7 +9174,7 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54981368821217025</v>
+        <v>4.648257391618138E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -9163,7 +9186,7 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63137239148551505</v>
+        <v>0.26174319460442264</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -9175,7 +9198,7 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35470956127985342</v>
+        <v>0.78218446222600291</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -9187,7 +9210,7 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34069325359744917</v>
+        <v>0.68051736753676284</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -9199,19 +9222,19 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25427545718801026</v>
+        <v>0.43415924097954139</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C33" t="s">
         <v>1017</v>
       </c>
-      <c r="C33" t="s">
-        <v>1018</v>
-      </c>
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99581385919351562</v>
+        <v>0.38662123872977661</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
@@ -9223,7 +9246,7 @@
       </c>
       <c r="D34">
         <f t="shared" ref="D34:D54" ca="1" si="1">RAND()</f>
-        <v>0.67958516279920944</v>
+        <v>0.84158717123096261</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
@@ -9235,7 +9258,7 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81127140588421753</v>
+        <v>0.50907903370026275</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
@@ -9247,7 +9270,7 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8130168104073795</v>
+        <v>0.71408203448838981</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
@@ -9259,7 +9282,7 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52800482911954139</v>
+        <v>0.85770252117771362</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
@@ -9271,7 +9294,7 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86033803413441368</v>
+        <v>0.56622027935060515</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
@@ -9279,11 +9302,11 @@
         <v>1008</v>
       </c>
       <c r="C39" t="s">
-        <v>1009</v>
+        <v>1473</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6182342415013178E-2</v>
+        <v>0.97543221925926238</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
@@ -9295,7 +9318,7 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85307229949909624</v>
+        <v>7.8370709435443553E-3</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
@@ -9307,7 +9330,7 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85619080440448803</v>
+        <v>0.25744258074123993</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
@@ -9319,7 +9342,7 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3234235897407576E-2</v>
+        <v>0.81411349492839691</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
@@ -9327,47 +9350,47 @@
         <v>967</v>
       </c>
       <c r="C43" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40023980439891116</v>
+        <v>0.80791267586871229</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C44" t="s">
         <v>1021</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1022</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24736361157833187</v>
+        <v>0.65168468037147231</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C45" t="s">
         <v>1015</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1016</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41410001102182892</v>
+        <v>0.70145312276503324</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C46" t="s">
         <v>870</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60200820488538853</v>
+        <v>0.95007978417204209</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
@@ -9379,7 +9402,7 @@
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30140783570151519</v>
+        <v>0.56221598300277309</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
@@ -9391,7 +9414,7 @@
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84695057348983227</v>
+        <v>0.77796922092751297</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
@@ -9403,7 +9426,7 @@
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65708126845944137</v>
+        <v>0.79334749877490318</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
@@ -9415,7 +9438,7 @@
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15375482738109481</v>
+        <v>0.38591385246685062</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
@@ -9427,7 +9450,7 @@
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53431153851014812</v>
+        <v>0.1934434540563722</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
@@ -9439,7 +9462,7 @@
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>0.348683838795385</v>
+        <v>0.61657348314208982</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
@@ -9451,7 +9474,7 @@
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95979650369880498</v>
+        <v>5.603880515753612E-2</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
@@ -9463,7 +9486,7 @@
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11978571517761305</v>
+        <v>0.43827385153533593</v>
       </c>
     </row>
   </sheetData>
@@ -9480,8 +9503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF35567-F0DB-48D1-B1D7-CA806FEDBEE5}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9507,14 +9530,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="C2" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="D2">
-        <f ca="1">RAND()</f>
-        <v>7.8372767588703596E-3</v>
+        <f t="shared" ref="D2:D47" ca="1" si="0">RAND()</f>
+        <v>0.83495583751749025</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -9522,14 +9545,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="C3" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="D3">
-        <f ca="1">RAND()</f>
-        <v>0.68897122771060804</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8679652059435724</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -9537,14 +9560,14 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="C4" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="D4">
-        <f ca="1">RAND()</f>
-        <v>0.3702852421847953</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.38126427409590646</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -9552,14 +9575,14 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C5" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D5">
-        <f ca="1">RAND()</f>
-        <v>0.40167186646935393</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31780737279886007</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -9567,14 +9590,14 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="C6" t="s">
         <v>424</v>
       </c>
       <c r="D6">
-        <f ca="1">RAND()</f>
-        <v>0.74007851674968339</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40928231113654989</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -9582,14 +9605,14 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>1051</v>
+        <v>1476</v>
       </c>
       <c r="C7" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="D7">
-        <f ca="1">RAND()</f>
-        <v>0.3369302925882024</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69504715804162065</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -9597,14 +9620,14 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="C8" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="D8">
-        <f ca="1">RAND()</f>
-        <v>0.7401301515927704</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.59984314036856001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -9612,14 +9635,14 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C9" t="s">
-        <v>1031</v>
+        <v>1474</v>
       </c>
       <c r="D9">
-        <f ca="1">RAND()</f>
-        <v>0.85764263757845238</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.54713018184882578</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -9627,14 +9650,14 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="C10" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="D10">
-        <f ca="1">RAND()</f>
-        <v>0.98084702070323804</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.27883791707362215</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -9642,14 +9665,14 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C11" t="s">
         <v>1041</v>
       </c>
-      <c r="C11" t="s">
-        <v>1044</v>
-      </c>
       <c r="D11">
-        <f ca="1">RAND()</f>
-        <v>0.71617605411483765</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.57449435925642467</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -9657,14 +9680,14 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C12" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D12">
-        <f ca="1">RAND()</f>
-        <v>0.98698570692344623</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.54260713467076338</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -9672,14 +9695,14 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="C13" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="D13">
-        <f ca="1">RAND()</f>
-        <v>0.64322903086548511</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64645238464001331</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9687,14 +9710,14 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C14" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="D14">
-        <f ca="1">RAND()</f>
-        <v>0.37753074867610403</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.49452274943690089</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -9702,14 +9725,14 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="C15" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="D15">
-        <f ca="1">RAND()</f>
-        <v>0.29964604257238647</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69154332122413931</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -9717,14 +9740,14 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C16" t="s">
         <v>1028</v>
       </c>
-      <c r="C16" t="s">
-        <v>1029</v>
-      </c>
       <c r="D16">
-        <f ca="1">RAND()</f>
-        <v>0.28715948314780315</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60800591812840454</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -9732,14 +9755,14 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="C17" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="D17">
-        <f ca="1">RAND()</f>
-        <v>3.7048572596932727E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.89793196957386412</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -9747,14 +9770,14 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="C18" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="D18">
-        <f ca="1">RAND()</f>
-        <v>0.27323407943479405</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.51233814727708527</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -9762,14 +9785,14 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C19" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="D19">
-        <f ca="1">RAND()</f>
-        <v>0.48202057432032019</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18724574624718227</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -9777,14 +9800,14 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C20" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D20">
-        <f ca="1">RAND()</f>
-        <v>0.47594582777228478</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56075064101242322</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -9792,14 +9815,14 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="C21" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="D21">
-        <f ca="1">RAND()</f>
-        <v>0.27541274144314642</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.92980987667020687</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -9807,314 +9830,314 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="C22" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D22">
-        <f ca="1">RAND()</f>
-        <v>0.87865745625476444</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41670457101718272</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="C23" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="D23">
-        <f ca="1">RAND()</f>
-        <v>0.37656170826763269</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64331233219345696</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="C24" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="D24">
-        <f ca="1">RAND()</f>
-        <v>0.20485805090494569</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45037655760887141</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="C25" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="D25">
-        <f ca="1">RAND()</f>
-        <v>0.29480898217953144</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95175455512585216</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="C26" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="D26">
-        <f ca="1">RAND()</f>
-        <v>0.5395033823237565</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.17663578633021115</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="C27" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="D27">
-        <f ca="1">RAND()</f>
-        <v>0.94403467563026433</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12913866708601218</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="C28" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="D28">
-        <f ca="1">RAND()</f>
-        <v>0.16729340378115032</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.867132008559107E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C29" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="D29">
-        <f ca="1">RAND()</f>
-        <v>0.31563106379582395</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.80607560118185817</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="C30" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="D30">
-        <f ca="1">RAND()</f>
-        <v>0.58324992628016459</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32099498292462125</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C31" t="s">
         <v>1024</v>
       </c>
-      <c r="C31" t="s">
-        <v>1025</v>
-      </c>
       <c r="D31">
-        <f ca="1">RAND()</f>
-        <v>0.95668454396236213</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72538294300988737</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="C32" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="D32">
-        <f ca="1">RAND()</f>
-        <v>0.35064432756328257</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34049445341111106</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C33" t="s">
-        <v>1034</v>
+        <v>1475</v>
       </c>
       <c r="D33">
-        <f ca="1">RAND()</f>
-        <v>0.81943481224293624</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81756485580178895</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C34" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="D34">
-        <f ca="1">RAND()</f>
-        <v>0.8057321032828374</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.90692284711385229</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="C35" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="D35">
-        <f ca="1">RAND()</f>
-        <v>1.4792763501617401E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.29584519973608436</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="C36" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="D36">
-        <f ca="1">RAND()</f>
-        <v>0.94997932485925962</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.82057597649243175</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="C37" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="D37">
-        <f ca="1">RAND()</f>
-        <v>0.44744042685616581</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.52607108044177397</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C38" t="s">
         <v>1026</v>
       </c>
-      <c r="C38" t="s">
-        <v>1027</v>
-      </c>
       <c r="D38">
-        <f ca="1">RAND()</f>
-        <v>8.0602018812029663E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.7781280202446883E-3</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="C39" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="D39">
-        <f ca="1">RAND()</f>
-        <v>0.30507277011419853</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37658090308272241</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="C40" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D40">
-        <f ca="1">RAND()</f>
-        <v>0.31253633102378686</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.86327214927428775</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C41" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="D41">
-        <f ca="1">RAND()</f>
-        <v>0.64050392205903628</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.43835322148032263</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="C42" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="D42">
-        <f ca="1">RAND()</f>
-        <v>2.1393301128824094E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33957693526560284</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="C43" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="D43">
-        <f ca="1">RAND()</f>
-        <v>0.21356563197942535</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.89074578730421006</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="C44" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="D44">
-        <f ca="1">RAND()</f>
-        <v>0.16602976088096721</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42021788524776527</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C45" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="D45">
-        <f ca="1">RAND()</f>
-        <v>0.65295588607063215</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.75568044550649716</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="C46" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D46">
-        <f ca="1">RAND()</f>
-        <v>0.80282210955288691</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25342228020848545</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="C47" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="D47">
-        <f ca="1">RAND()</f>
-        <v>0.79168114971389425</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.86009704448690139</v>
       </c>
     </row>
   </sheetData>
@@ -10157,14 +10180,14 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="C2" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="D2">
-        <f ca="1">RAND()</f>
-        <v>0.8962177772378328</v>
+        <f t="shared" ref="D2:D45" ca="1" si="0">RAND()</f>
+        <v>0.74742151118246047</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -10172,14 +10195,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="C3" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="D3">
-        <f ca="1">RAND()</f>
-        <v>0.92706545319118427</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.58514155538335344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -10187,14 +10210,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="C4" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="D4">
-        <f ca="1">RAND()</f>
-        <v>0.96913873711473941</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.87341984105378057</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -10202,14 +10225,14 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="C5" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="D5">
-        <f ca="1">RAND()</f>
-        <v>0.37470302519599596</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.3443517630796484E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -10217,14 +10240,14 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="C6" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="D6">
-        <f ca="1">RAND()</f>
-        <v>0.68470218991088649</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88006110655847969</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -10232,14 +10255,14 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="C7" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="D7">
-        <f ca="1">RAND()</f>
-        <v>0.17207187380047884</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4513136327489361</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -10247,14 +10270,14 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="C8" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="D8">
-        <f ca="1">RAND()</f>
-        <v>0.8161749264289766</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.21781318192716326</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -10262,14 +10285,14 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C9" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="D9">
-        <f ca="1">RAND()</f>
-        <v>7.7411278506846148E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4356836545998877E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -10277,14 +10300,14 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C10" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="D10">
-        <f ca="1">RAND()</f>
-        <v>0.38330130579031885</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.67274401880673163</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -10292,14 +10315,14 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="C11" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="D11">
-        <f ca="1">RAND()</f>
-        <v>1.8711504100686782E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.66988196786831178</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -10307,14 +10330,14 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="C12" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="D12">
-        <f ca="1">RAND()</f>
-        <v>0.96319398237879228</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35257232225620583</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -10322,14 +10345,14 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="C13" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="D13">
-        <f ca="1">RAND()</f>
-        <v>0.89775898383553987</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78814947532296487</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -10337,14 +10360,14 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="C14" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="D14">
-        <f ca="1">RAND()</f>
-        <v>0.2730632850039566</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20834763718731508</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -10352,14 +10375,14 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="C15" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="D15">
-        <f ca="1">RAND()</f>
-        <v>0.81668566981120916</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14356727393695801</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -10367,14 +10390,14 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C16" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="D16">
-        <f ca="1">RAND()</f>
-        <v>0.77301198363128598</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.82783843325434658</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -10382,14 +10405,14 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="C17" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="D17">
-        <f ca="1">RAND()</f>
-        <v>0.48399907588448476</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.30032538958853683</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -10397,14 +10420,14 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C18" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="D18">
-        <f ca="1">RAND()</f>
-        <v>0.1483656692932539</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40236733181304118</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -10412,14 +10435,14 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="C19" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="D19">
-        <f ca="1">RAND()</f>
-        <v>0.6519647680664109</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9.7598055612663992E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -10427,14 +10450,14 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="C20" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="D20">
-        <f ca="1">RAND()</f>
-        <v>0.43248120724412042</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.52508445704310869</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -10442,14 +10465,14 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="C21" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="D21">
-        <f ca="1">RAND()</f>
-        <v>0.57295562614573758</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41211351814288244</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -10457,14 +10480,14 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="C22" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="D22">
-        <f ca="1">RAND()</f>
-        <v>0.25534173155223505</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45165835380772923</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -10472,14 +10495,14 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="C23" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="D23">
-        <f ca="1">RAND()</f>
-        <v>0.58414174497779014</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13013912334876976</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -10487,14 +10510,14 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C24" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="D24">
-        <f ca="1">RAND()</f>
-        <v>0.46443260690136801</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.86297479048400405</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -10502,14 +10525,14 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="C25" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="D25">
-        <f ca="1">RAND()</f>
-        <v>0.40058921263370961</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74339102623071174</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -10517,14 +10540,14 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="C26" t="s">
         <v>136</v>
       </c>
       <c r="D26">
-        <f ca="1">RAND()</f>
-        <v>0.4752117352583729</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72351696585001313</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -10532,14 +10555,14 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="C27" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="D27">
-        <f ca="1">RAND()</f>
-        <v>0.23735291707787398</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18589713902178895</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -10547,14 +10570,14 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="C28" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="D28">
-        <f ca="1">RAND()</f>
-        <v>0.27958834229745211</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.29887839956443385</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -10562,14 +10585,14 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="C29" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="D29">
-        <f ca="1">RAND()</f>
-        <v>5.5370853639529205E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.30425343916597836</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -10577,14 +10600,14 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C30" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="D30">
-        <f ca="1">RAND()</f>
-        <v>0.29298716864338659</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.43372125479813262</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -10592,182 +10615,182 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="C31" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="D31">
-        <f ca="1">RAND()</f>
-        <v>0.23433928214984712</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12622661711579242</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="C32" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="D32">
-        <f ca="1">RAND()</f>
-        <v>0.29444329764874222</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32481561890106214</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C33" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="D33">
-        <f ca="1">RAND()</f>
-        <v>0.2098822763014716</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16269567052051259</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="C34" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="D34">
-        <f ca="1">RAND()</f>
-        <v>0.38905418721475238</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.66248046622407186</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="C35" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="D35">
-        <f ca="1">RAND()</f>
-        <v>0.2778877903855379</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2010799500701275E-2</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="C36" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="D36">
-        <f ca="1">RAND()</f>
-        <v>0.25773907838432242</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.21346320350846848</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C37" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="D37">
-        <f ca="1">RAND()</f>
-        <v>0.97983762409065167</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9159378696789785</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="C38" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="D38">
-        <f ca="1">RAND()</f>
-        <v>0.27049867271304373</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76743393272666394</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C39" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D39">
-        <f ca="1">RAND()</f>
-        <v>0.21923239829249608</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.85563463437834042</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="C40" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="D40">
-        <f ca="1">RAND()</f>
-        <v>0.37714187334919347</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36472395036280336</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="C41" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D41">
-        <f ca="1">RAND()</f>
-        <v>0.59363263351816653</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35736280842551105</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C42" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="D42">
-        <f ca="1">RAND()</f>
-        <v>0.60864814989102545</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1515539444244578</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="C43" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="D43">
-        <f ca="1">RAND()</f>
-        <v>0.6854634047028072</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14713929519045676</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="C44" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="D44">
-        <f ca="1">RAND()</f>
-        <v>0.42023223615150351</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.50723080946696419</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="C45" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="D45">
-        <f ca="1">RAND()</f>
-        <v>0.56250002697548396</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2110316594787196</v>
       </c>
     </row>
   </sheetData>
@@ -10783,7 +10806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A8C6A9-E1B9-4E0A-8540-A2BC4B9B39E3}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
@@ -10810,14 +10833,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="C2" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="D2">
-        <f ca="1">RAND()</f>
-        <v>0.26388187224028925</v>
+        <f t="shared" ref="D2:D40" ca="1" si="0">RAND()</f>
+        <v>0.1353499353719736</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -10825,14 +10848,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="C3" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="D3">
-        <f ca="1">RAND()</f>
-        <v>3.3546733806342655E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.63619754274752549</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -10840,14 +10863,14 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="C4" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="D4">
-        <f ca="1">RAND()</f>
-        <v>0.80132268045362476</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.93524955660495601</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -10855,14 +10878,14 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="C5" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="D5">
-        <f ca="1">RAND()</f>
-        <v>0.64986617386282874</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.7939081942743766E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -10870,14 +10893,14 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="C6" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="D6">
-        <f ca="1">RAND()</f>
-        <v>0.76622997769956758</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76062685221887705</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -10885,14 +10908,14 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="C7" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="D7">
-        <f ca="1">RAND()</f>
-        <v>0.99076128672509312</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42669509384291759</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -10900,14 +10923,14 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="C8" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="D8">
-        <f ca="1">RAND()</f>
-        <v>0.54139594381535583</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11904885825210587</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -10915,14 +10938,14 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="C9" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="D9">
-        <f ca="1">RAND()</f>
-        <v>0.25682036686336629</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.50576323447316518</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -10930,14 +10953,14 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="C10" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="D10">
-        <f ca="1">RAND()</f>
-        <v>0.80433471461396988</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65544550150227798</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -10945,14 +10968,14 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="C11" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="D11">
-        <f ca="1">RAND()</f>
-        <v>0.5158353407258458</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.58015878985225855</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -10960,14 +10983,14 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="C12" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="D12">
-        <f ca="1">RAND()</f>
-        <v>0.66796461030782228</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.28872532421462704</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -10975,14 +10998,14 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="C13" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="D13">
-        <f ca="1">RAND()</f>
-        <v>0.82233472954088449</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81021911331100493</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -10990,14 +11013,14 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="C14" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="D14">
-        <f ca="1">RAND()</f>
-        <v>0.74207537974377202</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5840335651190266</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -11005,14 +11028,14 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="C15" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="D15">
-        <f ca="1">RAND()</f>
-        <v>0.14360553693040234</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32707055215769232</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -11020,14 +11043,14 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="C16" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="D16">
-        <f ca="1">RAND()</f>
-        <v>2.0370289829518162E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.655816114878609E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -11035,14 +11058,14 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="C17" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="D17">
-        <f ca="1">RAND()</f>
-        <v>0.53775294555629682</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.21324758309720127</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -11050,14 +11073,14 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="C18" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="D18">
-        <f ca="1">RAND()</f>
-        <v>0.40201378176236102</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26175134181194126</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -11065,266 +11088,266 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C19" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="D19">
-        <f ca="1">RAND()</f>
-        <v>0.11054140147891545</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83801887547491061</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="C20" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="D20">
-        <f ca="1">RAND()</f>
-        <v>0.58131380376899944</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.53216569351836507</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="C21" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="D21">
-        <f ca="1">RAND()</f>
-        <v>0.54784404394455088</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12952417741794287</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="C22" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="D22">
-        <f ca="1">RAND()</f>
-        <v>0.90321695937362256</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.61649542030017057</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="C23" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="D23">
-        <f ca="1">RAND()</f>
-        <v>0.13024429974276253</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88521368046789517</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="C24" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="D24">
-        <f ca="1">RAND()</f>
-        <v>0.91696152805345488</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46077438850575081</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="C25" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="D25">
-        <f ca="1">RAND()</f>
-        <v>0.7107912792622012</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.86368477880243633</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="C26" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="D26">
-        <f ca="1">RAND()</f>
-        <v>3.9690926480427935E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41334336959902185</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="C27" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="D27">
-        <f ca="1">RAND()</f>
-        <v>0.26533801381523725</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16512066561497607</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="C28" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="D28">
-        <f ca="1">RAND()</f>
-        <v>0.33952117262112413</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.22706593954237819</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="C29" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="D29">
-        <f ca="1">RAND()</f>
-        <v>0.31609543351458769</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76725087188440244</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="C30" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="D30">
-        <f ca="1">RAND()</f>
-        <v>0.51520169233389712</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9979280592908748</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="C31" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="D31">
-        <f ca="1">RAND()</f>
-        <v>8.746770079101529E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.82072340488573114</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="C32" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D32">
-        <f ca="1">RAND()</f>
-        <v>0.69692408851471188</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.28845792078994026</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="C33" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="D33">
-        <f ca="1">RAND()</f>
-        <v>0.56490292309731693</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95528618569918322</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="C34" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="D34">
-        <f ca="1">RAND()</f>
-        <v>0.67347756899702393</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37051189337742052</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="C35" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="D35">
-        <f ca="1">RAND()</f>
-        <v>4.8390961870411586E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47843612392375123</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="C36" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="D36">
-        <f ca="1">RAND()</f>
-        <v>0.86236595732863874</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.63614340042479589</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="C37" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="D37">
-        <f ca="1">RAND()</f>
-        <v>1.3193791298088176E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.96097257054869345</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="C38" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="D38">
-        <f ca="1">RAND()</f>
-        <v>0.516163912791063</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.93683390326520954</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="C39" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="D39">
-        <f ca="1">RAND()</f>
-        <v>0.56135111106893298</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.6671154986778336E-2</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="C40" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="D40">
-        <f ca="1">RAND()</f>
-        <v>0.91065317053429429</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83277171559689334</v>
       </c>
     </row>
   </sheetData>
@@ -11367,14 +11390,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="C2" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="D2">
-        <f ca="1">RAND()</f>
-        <v>0.52669887705627416</v>
+        <f t="shared" ref="D2:D33" ca="1" si="0">RAND()</f>
+        <v>0.20403304548976109</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -11382,14 +11405,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="C3" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="D3">
-        <f ca="1">RAND()</f>
-        <v>0.65210062295311022</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78159441175223643</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -11397,14 +11420,14 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="C4" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="D4">
-        <f ca="1">RAND()</f>
-        <v>0.90819025297300104</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78448677321125193</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -11412,14 +11435,14 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="C5" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="D5">
-        <f ca="1">RAND()</f>
-        <v>0.3566235410788583</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37206227316556884</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -11427,14 +11450,14 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="C6" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="D6">
-        <f ca="1">RAND()</f>
-        <v>1.6271601910434086E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1004989903005802E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -11442,14 +11465,14 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="C7" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="D7">
-        <f ca="1">RAND()</f>
-        <v>0.89787825755434469</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81646630701766898</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -11457,14 +11480,14 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="C8" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="D8">
-        <f ca="1">RAND()</f>
-        <v>0.53729835146629357</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48371738859358049</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -11472,14 +11495,14 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="C9" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="D9">
-        <f ca="1">RAND()</f>
-        <v>0.47629781632833401</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.87210774792962664</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -11487,14 +11510,14 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="C10" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="D10">
-        <f ca="1">RAND()</f>
-        <v>0.63957936892759526</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34127703474437654</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -11502,14 +11525,14 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="C11" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="D11">
-        <f ca="1">RAND()</f>
-        <v>0.50785655740873392</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.92716864178439318</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -11517,14 +11540,14 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="C12" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="D12">
-        <f ca="1">RAND()</f>
-        <v>5.5954812762646244E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.29168246083499305</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -11532,14 +11555,14 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="C13" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="D13">
-        <f ca="1">RAND()</f>
-        <v>0.27913348909837765</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83462279230885383</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -11547,14 +11570,14 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="C14" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="D14">
-        <f ca="1">RAND()</f>
-        <v>0.36088745100263109</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.70241456197587759</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -11562,14 +11585,14 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="C15" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="D15">
-        <f ca="1">RAND()</f>
-        <v>0.37540316779317284</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.7920170063361569E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -11577,14 +11600,14 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="C16" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="D16">
-        <f ca="1">RAND()</f>
-        <v>0.94686093227182588</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.67106602512599056</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -11592,14 +11615,14 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="C17" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="D17">
-        <f ca="1">RAND()</f>
-        <v>0.97677702363887631</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31959663158843177</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -11607,14 +11630,14 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="C18" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="D18">
-        <f ca="1">RAND()</f>
-        <v>0.11209418395000625</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.22815147516385059</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -11622,14 +11645,14 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="C19" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="D19">
-        <f ca="1">RAND()</f>
-        <v>0.56806449764463252</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88846273383787289</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -11637,14 +11660,14 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="C20" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="D20">
-        <f ca="1">RAND()</f>
-        <v>0.39457608531391863</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4044927602370636</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -11652,14 +11675,14 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="C21" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="D21">
-        <f ca="1">RAND()</f>
-        <v>0.80473429322806156</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64615393709249158</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -11667,14 +11690,14 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C22" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="D22">
-        <f ca="1">RAND()</f>
-        <v>0.37613981781865202</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.7029443662464567E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -11682,14 +11705,14 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="C23" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="D23">
-        <f ca="1">RAND()</f>
-        <v>0.22664589364938947</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.86481831940255527</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -11697,14 +11720,14 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="C24" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="D24">
-        <f ca="1">RAND()</f>
-        <v>0.7329603498795243</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18493632823346384</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -11712,314 +11735,314 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="C25" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="D25">
-        <f ca="1">RAND()</f>
-        <v>0.64374496922995206</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45282375003983855</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="C26" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="D26">
-        <f ca="1">RAND()</f>
-        <v>0.40974760272301047</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81225958027490375</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="C27" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="D27">
-        <f ca="1">RAND()</f>
-        <v>0.63479875396940644</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45009365931932133</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="C28" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="D28">
-        <f ca="1">RAND()</f>
-        <v>0.61227901343159619</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69937440333632284</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="C29" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="D29">
-        <f ca="1">RAND()</f>
-        <v>0.80933831844900883</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95724045354198561</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="C30" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="D30">
-        <f ca="1">RAND()</f>
-        <v>0.22291929239368391</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36458244241271354</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="C31" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="D31">
-        <f ca="1">RAND()</f>
-        <v>0.56523845920917082</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19248478488215193</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="C32" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="D32">
-        <f ca="1">RAND()</f>
-        <v>0.48152602136047218</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83768647032568633</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="C33" t="s">
         <v>500</v>
       </c>
       <c r="D33">
-        <f ca="1">RAND()</f>
-        <v>0.94965485203364852</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.96619431438296532</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="C34" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="D34">
-        <f ca="1">RAND()</f>
-        <v>5.4031264544168733E-2</v>
+        <f t="shared" ref="D34:D50" ca="1" si="1">RAND()</f>
+        <v>0.85978786189106027</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="C35" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="D35">
-        <f ca="1">RAND()</f>
-        <v>0.23880833004577495</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.28144242887596371</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="C36" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="D36">
-        <f ca="1">RAND()</f>
-        <v>0.792585552160607</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.33905289142219375</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="C37" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="D37">
-        <f ca="1">RAND()</f>
-        <v>0.95448562356387456</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.56677579821642077</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C38" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="D38">
-        <f ca="1">RAND()</f>
-        <v>0.34522762460651635</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.38234890674316124</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="C39" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="D39">
-        <f ca="1">RAND()</f>
-        <v>0.75144088288634947</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.30901126756925212</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="C40" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="D40">
-        <f ca="1">RAND()</f>
-        <v>0.52065497707931063</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44011678349361882</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="C41" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="D41">
-        <f ca="1">RAND()</f>
-        <v>0.5249631390441859</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.45637168836345132</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="C42" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="D42">
-        <f ca="1">RAND()</f>
-        <v>0.2903648863175029</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.75091094338252518</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="C43" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="D43">
-        <f ca="1">RAND()</f>
-        <v>0.97843204288868546</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.24537908239930895</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="C44" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="D44">
-        <f ca="1">RAND()</f>
-        <v>0.49291336201185021</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.45683416827401291</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="C45" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="D45">
-        <f ca="1">RAND()</f>
-        <v>0.18962001708924481</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.15329184800384599</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="C46" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="D46">
-        <f ca="1">RAND()</f>
-        <v>0.14711973175574322</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.80814088548455187</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C47" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="D47">
-        <f ca="1">RAND()</f>
-        <v>0.59615099595322041</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.65102653253409792</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="C48" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="D48">
-        <f ca="1">RAND()</f>
-        <v>0.3299980099290849</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.36029348813760864</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="C49" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="D49">
-        <f ca="1">RAND()</f>
-        <v>2.0121420774467103E-3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.50407944181459641</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="C50" t="s">
         <v>630</v>
       </c>
       <c r="D50">
-        <f ca="1">RAND()</f>
-        <v>0.26294215634751095</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.25392243244399915</v>
       </c>
     </row>
   </sheetData>
@@ -12035,7 +12058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAF6850-3814-4CBE-A037-62D4644173B7}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -12062,14 +12085,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="C2" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="D2">
-        <f ca="1">RAND()</f>
-        <v>0.54404483699446327</v>
+        <f t="shared" ref="D2:D33" ca="1" si="0">RAND()</f>
+        <v>0.10896599410225316</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -12077,14 +12100,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="C3" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="D3">
-        <f ca="1">RAND()</f>
-        <v>0.98415440286650846</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.0036483934079112E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -12092,14 +12115,14 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="C4" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="D4">
-        <f ca="1">RAND()</f>
-        <v>0.26881160118220271</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3678251701947598</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -12107,14 +12130,14 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="C5" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="D5">
-        <f ca="1">RAND()</f>
-        <v>0.7713472746417589</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72430062188906674</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -12122,14 +12145,14 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="C6" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="D6">
-        <f ca="1">RAND()</f>
-        <v>0.35399011911311318</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34861810607710864</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -12137,14 +12160,14 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="C7" t="s">
         <v>896</v>
       </c>
       <c r="D7">
-        <f ca="1">RAND()</f>
-        <v>0.41660494593498454</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.6683519887845919</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -12152,14 +12175,14 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="C8" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="D8">
-        <f ca="1">RAND()</f>
-        <v>0.9871940610813198</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65928913596421268</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -12167,14 +12190,14 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="C9" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="D9">
-        <f ca="1">RAND()</f>
-        <v>0.64876472121132556</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.92859496615371306</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -12182,14 +12205,14 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C10" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="D10">
-        <f ca="1">RAND()</f>
-        <v>0.97062004945196401</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.7565820002684278E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -12197,14 +12220,14 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="C11" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="D11">
-        <f ca="1">RAND()</f>
-        <v>0.23818740464745558</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.29246840027492849</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -12212,14 +12235,14 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="C12" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="D12">
-        <f ca="1">RAND()</f>
-        <v>0.42245902842588368</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.70007191381859402</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -12227,14 +12250,14 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="C13" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="D13">
-        <f ca="1">RAND()</f>
-        <v>0.5617194031433338</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60235064975406793</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -12242,14 +12265,14 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="C14" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="D14">
-        <f ca="1">RAND()</f>
-        <v>0.37820270328278116</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.3671317030883809E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -12257,14 +12280,14 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="C15" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="D15">
-        <f ca="1">RAND()</f>
-        <v>0.78373837834174043</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95943799560226195</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -12272,14 +12295,14 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="C16" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="D16">
-        <f ca="1">RAND()</f>
-        <v>0.85875658036942637</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.86187004021930347</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -12287,14 +12310,14 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="C17" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="D17">
-        <f ca="1">RAND()</f>
-        <v>0.55814679295525327</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48270845010217867</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -12302,14 +12325,14 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C18" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="D18">
-        <f ca="1">RAND()</f>
-        <v>0.91578031531844672</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.87641186440507224</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -12317,14 +12340,14 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="C19" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="D19">
-        <f ca="1">RAND()</f>
-        <v>0.87351375317628188</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.97040805588430668</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -12332,14 +12355,14 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="C20" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="D20">
-        <f ca="1">RAND()</f>
-        <v>0.4327215596384536</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.1738438106454483E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -12347,14 +12370,14 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C21" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="D21">
-        <f ca="1">RAND()</f>
-        <v>0.22194731520756306</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.43122677904358409</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -12362,14 +12385,14 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="C22" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="D22">
-        <f ca="1">RAND()</f>
-        <v>0.96253318804309274</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69927537488885616</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -12377,14 +12400,14 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C23" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="D23">
-        <f ca="1">RAND()</f>
-        <v>0.95558625223176552</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.97152481210548614</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -12392,14 +12415,14 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C24" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="D24">
-        <f ca="1">RAND()</f>
-        <v>0.58888144303780976</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8863036564468515</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -12407,14 +12430,14 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="C25" t="s">
         <v>987</v>
       </c>
       <c r="D25">
-        <f ca="1">RAND()</f>
-        <v>0.36026095540627467</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.96199277490663437</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -12422,14 +12445,14 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="C26" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="D26">
-        <f ca="1">RAND()</f>
-        <v>8.8720156621126867E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.66737489850392773</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -12437,14 +12460,14 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="C27" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="D27">
-        <f ca="1">RAND()</f>
-        <v>0.67869762472080408</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.75056210899774067</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -12452,302 +12475,302 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="C28" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="D28">
-        <f ca="1">RAND()</f>
-        <v>0.90455200417431125</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26595938680224862</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C29" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="D29">
-        <f ca="1">RAND()</f>
-        <v>0.71643023299202613</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.86588703095912745</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="C30" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="D30">
-        <f ca="1">RAND()</f>
-        <v>0.97589546465321531</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.61621158121251429</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="C31" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="D31">
-        <f ca="1">RAND()</f>
-        <v>0.60777509358321724</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.4848593949937121E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="C32" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="D32">
-        <f ca="1">RAND()</f>
-        <v>0.43111996833283028</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.75324391411469027</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="C33" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="D33">
-        <f ca="1">RAND()</f>
-        <v>0.61631987181191616</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.22465494336658154</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="C34" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="D34">
-        <f ca="1">RAND()</f>
-        <v>0.62236500722045784</v>
+        <f t="shared" ref="D34:D52" ca="1" si="1">RAND()</f>
+        <v>0.47475041487168312</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C35" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="D35">
-        <f ca="1">RAND()</f>
-        <v>0.4383072471485866</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.15502424171956442</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C36" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="D36">
-        <f ca="1">RAND()</f>
-        <v>0.56143391115326391</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.41977025210349095</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C37" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="D37">
-        <f ca="1">RAND()</f>
-        <v>0.62479195032794987</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.6678729789427218</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="C38" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="D38">
-        <f ca="1">RAND()</f>
-        <v>9.1614105051640693E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.50256624460842902</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="C39" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="D39">
-        <f ca="1">RAND()</f>
-        <v>0.827764795661181</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.86746956913751583</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="C40" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="D40">
-        <f ca="1">RAND()</f>
-        <v>0.42868606691083677</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.92315609262826237</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="C41" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="D41">
-        <f ca="1">RAND()</f>
-        <v>0.47336363944073423</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.7371198741976408</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="C42" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="D42">
-        <f ca="1">RAND()</f>
-        <v>0.19982296216067141</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.36377375949338897</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="C43" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="D43">
-        <f ca="1">RAND()</f>
-        <v>0.86738657485823023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.65212084396630077</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="C44" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="D44">
-        <f ca="1">RAND()</f>
-        <v>0.1102158157440547</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.95032491439277478</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="C45" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="D45">
-        <f ca="1">RAND()</f>
-        <v>4.5962913114034998E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.23614012016771779</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C46" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="D46">
-        <f ca="1">RAND()</f>
-        <v>6.5395562318207534E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.55033052194007692</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="C47" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="D47">
-        <f ca="1">RAND()</f>
-        <v>0.52752814353411348</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.83633875913097977</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="C48" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="D48">
-        <f ca="1">RAND()</f>
-        <v>0.50553917118502045</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.38630053278270171</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="C49" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="D49">
-        <f ca="1">RAND()</f>
-        <v>0.74409297302042698</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.33387048173036826</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="C50" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="D50">
-        <f ca="1">RAND()</f>
-        <v>0.99980575494440138</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.73246513400025992</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C51" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="D51">
-        <f ca="1">RAND()</f>
-        <v>0.83018509825823583</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.90733381972712635</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="C52" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="D52">
-        <f ca="1">RAND()</f>
-        <v>0.93157693960393451</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.79821452194508236</v>
       </c>
     </row>
   </sheetData>
@@ -12797,7 +12820,7 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D34" ca="1" si="0">RAND()</f>
-        <v>0.10767363417708309</v>
+        <v>0.4532182233241322</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -12812,7 +12835,7 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9457973026007308</v>
+        <v>0.90519773413032134</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -12827,7 +12850,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3556211634875408</v>
+        <v>0.13064131654682642</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -12842,7 +12865,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9769458792090604</v>
+        <v>0.46346777704034081</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -12857,7 +12880,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7925089861589748</v>
+        <v>5.6366414004694443E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -12872,7 +12895,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8739029891536694E-2</v>
+        <v>0.64455829984266233</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -12887,7 +12910,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65259150673500743</v>
+        <v>6.5954963581078885E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -12902,7 +12925,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41827098546266483</v>
+        <v>0.5686908159801608</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -12914,7 +12937,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37838119715301943</v>
+        <v>0.66289751619222392</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -12926,7 +12949,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60458660868443492</v>
+        <v>0.49008538748752906</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -12938,7 +12961,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24597474957701304</v>
+        <v>0.57457336228733191</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -12950,7 +12973,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12109540134166008</v>
+        <v>0.53750113416379663</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -12962,7 +12985,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88155768960253578</v>
+        <v>0.6238595426309097</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -12974,7 +12997,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1111708324060191</v>
+        <v>0.67941244712875282</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -12986,7 +13009,7 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88691933417452273</v>
+        <v>0.14195309717921822</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -12998,7 +13021,7 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14809251556079195</v>
+        <v>4.6775492751252257E-2</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
@@ -13010,7 +13033,7 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6255297618011757</v>
+        <v>0.59362094113427555</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
@@ -13022,7 +13045,7 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76297413933777003</v>
+        <v>0.28786020782559318</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
@@ -13034,7 +13057,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45712726762491218</v>
+        <v>0.49024991217399549</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -13046,7 +13069,7 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72550454967796163</v>
+        <v>0.50921994103410284</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
@@ -13058,7 +13081,7 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57642643910279934</v>
+        <v>0.10612375425525344</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
@@ -13070,7 +13093,7 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72577487016986797</v>
+        <v>0.36338223930528191</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
@@ -13082,7 +13105,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50257329938485229</v>
+        <v>0.65169296830534384</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
@@ -13094,7 +13117,7 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9298469814530907E-2</v>
+        <v>0.52785304477317296</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
@@ -13106,7 +13129,7 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70966108201889833</v>
+        <v>0.77383436783392667</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
@@ -13118,7 +13141,7 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53899840277672517</v>
+        <v>0.91943949068340147</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
@@ -13130,7 +13153,7 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42617828380252043</v>
+        <v>0.11056489893881993</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
@@ -13142,7 +13165,7 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91126657418602952</v>
+        <v>0.5301063356866077</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
@@ -13154,7 +13177,7 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21949359477922625</v>
+        <v>0.22389275351530991</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
@@ -13166,7 +13189,7 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29676840363760537</v>
+        <v>0.40595880003861196</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
@@ -13178,7 +13201,7 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98746173788028513</v>
+        <v>0.79037378510956735</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
@@ -13190,7 +13213,7 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9164222630300265</v>
+        <v>0.91974026034772238</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
@@ -13202,7 +13225,7 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59692982091918589</v>
+        <v>0.61610685347392424</v>
       </c>
     </row>
   </sheetData>
@@ -13253,7 +13276,7 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D38" ca="1" si="0">RAND()</f>
-        <v>7.3201009480352686E-2</v>
+        <v>0.19306021538297857</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -13268,7 +13291,7 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98104828979568204</v>
+        <v>0.79865587293786122</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -13283,7 +13306,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91765401040843775</v>
+        <v>0.69748079906726235</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -13298,7 +13321,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29112566705296117</v>
+        <v>0.55909210257459274</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -13313,7 +13336,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85233691640409404</v>
+        <v>0.71940599809713013</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -13328,7 +13351,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46841668600712283</v>
+        <v>0.17226053643261352</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -13343,7 +13366,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61644176179321108</v>
+        <v>0.12750119689289152</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -13358,7 +13381,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54750221460683013</v>
+        <v>0.49795723646301682</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -13373,7 +13396,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46511233622542447</v>
+        <v>0.92024644135727596</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -13388,7 +13411,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9790567706468003</v>
+        <v>0.1072568941741382</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -13403,7 +13426,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0367378705566983E-3</v>
+        <v>0.6225556326732874</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -13418,7 +13441,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53573842844456321</v>
+        <v>0.81714344892684943</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -13433,7 +13456,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98669779879287833</v>
+        <v>0.32724980512653778</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -13448,7 +13471,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9952019597470686</v>
+        <v>0.73374178516840316</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -13463,7 +13486,7 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40971429398486603</v>
+        <v>0.45490112100819902</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -13478,7 +13501,7 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60478528936532061</v>
+        <v>0.76039301364850387</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -13493,7 +13516,7 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60628212038931573</v>
+        <v>0.57303645553096749</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -13508,7 +13531,7 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91920666636970227</v>
+        <v>0.13600210005324165</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -13520,7 +13543,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68238220066286326</v>
+        <v>9.7130409155275266E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -13532,7 +13555,7 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45450885674508679</v>
+        <v>0.86438201548744109</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -13544,7 +13567,7 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84213072950245227</v>
+        <v>0.16106207412183327</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -13556,7 +13579,7 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8409894811275973</v>
+        <v>0.36001603838237861</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -13568,7 +13591,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7652646580208105E-2</v>
+        <v>0.57040953469039946</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -13580,7 +13603,7 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>7.379321163314323E-2</v>
+        <v>0.16620515428245508</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -13592,7 +13615,7 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55644965855408723</v>
+        <v>0.49285124064703156</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -13604,7 +13627,7 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94609181391685826</v>
+        <v>0.76299956755602238</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -13616,7 +13639,7 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31482324900399417</v>
+        <v>0.3789109989840399</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -13628,7 +13651,7 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83588104163087573</v>
+        <v>0.61251799920070138</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -13640,7 +13663,7 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63996344129443938</v>
+        <v>0.48962276691868034</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -13652,7 +13675,7 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96498033531761052</v>
+        <v>0.20221967236995908</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -13664,7 +13687,7 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32063461562215034</v>
+        <v>0.89566202076823198</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
@@ -13676,7 +13699,7 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4001293650010922</v>
+        <v>3.9521810892257037E-2</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
@@ -13688,7 +13711,7 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86248217206349109</v>
+        <v>0.76893678852360314</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
@@ -13700,7 +13723,7 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61385879030483925</v>
+        <v>0.32875482195782402</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
@@ -13712,7 +13735,7 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13938417358190225</v>
+        <v>0.75371177890455998</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
@@ -13724,7 +13747,7 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27747644824911111</v>
+        <v>0.63321159652651138</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
@@ -13736,7 +13759,7 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36785033165033121</v>
+        <v>0.90463831532114336</v>
       </c>
     </row>
   </sheetData>
@@ -13787,7 +13810,7 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D31" ca="1" si="0">RAND()</f>
-        <v>4.9660888049798735E-2</v>
+        <v>8.6714759739035641E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -13802,7 +13825,7 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6042876147300893E-2</v>
+        <v>0.86219505609375602</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -13817,7 +13840,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1172999354988139</v>
+        <v>3.252307583904146E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -13832,7 +13855,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65884091331848893</v>
+        <v>0.86711328422471989</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -13847,7 +13870,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17665294519825336</v>
+        <v>0.9917266340674824</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -13862,7 +13885,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83637924459723156</v>
+        <v>0.78224130899392064</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -13877,7 +13900,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54565411472515646</v>
+        <v>0.37794123441196126</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -13892,7 +13915,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8053128628213408E-2</v>
+        <v>0.53742050775275763</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -13907,7 +13930,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9391538230293417E-2</v>
+        <v>7.0347418904093351E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -13922,7 +13945,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9461991815465981</v>
+        <v>0.14841799069793205</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -13937,7 +13960,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8183090173534069E-2</v>
+        <v>0.20880381233967171</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -13952,7 +13975,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2219750979405695E-2</v>
+        <v>0.55917695831884084</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -13967,7 +13990,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21256722625027435</v>
+        <v>0.20952694397602556</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -13982,7 +14005,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69867294889706044</v>
+        <v>3.3613919296051398E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -13997,7 +14020,7 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79919528132706896</v>
+        <v>0.69755157283368507</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -14012,7 +14035,7 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94320606502991122</v>
+        <v>0.53567502809776502</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -14024,7 +14047,7 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2156524674386557E-2</v>
+        <v>0.43947209561102418</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -14036,7 +14059,7 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98420092113079594</v>
+        <v>0.2304343599603712</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -14048,7 +14071,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59018099741734475</v>
+        <v>0.11198618633121216</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -14060,7 +14083,7 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28825973333835175</v>
+        <v>0.42784572382881325</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -14072,7 +14095,7 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28576670795100323</v>
+        <v>0.17030822707901072</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -14084,7 +14107,7 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20476693850213668</v>
+        <v>5.8321180637390779E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -14096,7 +14119,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11859935023417323</v>
+        <v>8.892998327707935E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -14108,7 +14131,7 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12228944012976872</v>
+        <v>0.12779015078156686</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -14120,7 +14143,7 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16726655223256837</v>
+        <v>0.87230298052796151</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -14132,7 +14155,7 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59875473184914285</v>
+        <v>0.20577628680513849</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -14144,7 +14167,7 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7217535461002903</v>
+        <v>0.85299950827350657</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -14156,7 +14179,7 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2667717451047684E-2</v>
+        <v>0.21852272525071903</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -14168,7 +14191,7 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26623715212656063</v>
+        <v>0.43254215944774643</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -14180,7 +14203,7 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43167117638194319</v>
+        <v>0.77828408618471456</v>
       </c>
     </row>
   </sheetData>
@@ -14231,7 +14254,7 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D33" ca="1" si="0">RAND()</f>
-        <v>0.74952314792410712</v>
+        <v>0.18446565048749519</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -14246,7 +14269,7 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7788310453711818E-2</v>
+        <v>0.61287256227981135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -14261,7 +14284,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60660113989458042</v>
+        <v>0.22345652707805264</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -14276,7 +14299,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11321659177100041</v>
+        <v>0.57072522969556871</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -14291,7 +14314,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50469352927823907</v>
+        <v>0.76296441472041754</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -14306,7 +14329,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23946485963809816</v>
+        <v>0.24427357352738821</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -14321,7 +14344,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68175247115260473</v>
+        <v>0.37543623434735518</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -14336,7 +14359,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19620167781182363</v>
+        <v>0.31717169442307847</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -14351,7 +14374,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22738039209560901</v>
+        <v>0.91536791131879502</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -14366,7 +14389,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2445222227932099</v>
+        <v>0.49404599016170825</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -14381,7 +14404,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68683890534692815</v>
+        <v>0.37458873156464434</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -14396,7 +14419,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15641010810090561</v>
+        <v>0.66517824295427919</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -14408,7 +14431,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11813376482721183</v>
+        <v>0.55777355039555965</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -14420,7 +14443,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73796230595874679</v>
+        <v>0.54505528566729089</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -14432,7 +14455,7 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61833521764242405</v>
+        <v>0.4100597942399371</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -14444,7 +14467,7 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55285164014807031</v>
+        <v>0.56311488424021505</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
@@ -14456,7 +14479,7 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92633132401111229</v>
+        <v>0.66348337769732979</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
@@ -14468,7 +14491,7 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13233445371635466</v>
+        <v>0.65390663142046135</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
@@ -14480,7 +14503,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58546707816823551</v>
+        <v>0.68280144535961107</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -14492,7 +14515,7 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8495336686070748</v>
+        <v>0.42634155485161096</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
@@ -14504,7 +14527,7 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15137361203506616</v>
+        <v>0.66349566515487013</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
@@ -14516,7 +14539,7 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84453821874656332</v>
+        <v>0.16298373514957953</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
@@ -14528,7 +14551,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30524846038362896</v>
+        <v>0.52780345941104101</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
@@ -14540,7 +14563,7 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0742513672897136E-2</v>
+        <v>0.29437727541953262</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
@@ -14552,7 +14575,7 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1455298579730107E-2</v>
+        <v>0.99256203141790567</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
@@ -14564,7 +14587,7 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33803574119394575</v>
+        <v>0.92649878926053963</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
@@ -14576,7 +14599,7 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76876258951535514</v>
+        <v>7.5432051030979386E-2</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
@@ -14588,7 +14611,7 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37262028482378762</v>
+        <v>0.19026943167869226</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
@@ -14600,7 +14623,7 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92582092872704247</v>
+        <v>0.63227832388715699</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
@@ -14612,7 +14635,7 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39088775349023608</v>
+        <v>0.21100802040261279</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
@@ -14624,7 +14647,7 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62094527005470679</v>
+        <v>0.95614874233040359</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
@@ -14636,7 +14659,7 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94782901168966582</v>
+        <v>0.2964615046955863</v>
       </c>
     </row>
   </sheetData>
@@ -14686,7 +14709,7 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D35" ca="1" si="0">RAND()</f>
-        <v>0.10928338456754771</v>
+        <v>0.25041430887457095</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -14701,7 +14724,7 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40219383501363726</v>
+        <v>0.17284392489334166</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -14716,7 +14739,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85635498368270468</v>
+        <v>0.3667894597705772</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -14731,7 +14754,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67976556350412554</v>
+        <v>0.38967953397205002</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -14746,7 +14769,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66364540436452313</v>
+        <v>0.96210629014169147</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -14761,7 +14784,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79658931529760202</v>
+        <v>0.30771583494462618</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -14776,7 +14799,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1252370897533468</v>
+        <v>0.58731790813287166</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -14791,7 +14814,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91249430335855608</v>
+        <v>0.14936144292500719</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -14806,7 +14829,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49652605047509757</v>
+        <v>0.52249381059826394</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -14821,7 +14844,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64203095267983079</v>
+        <v>0.45408251821697676</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -14836,7 +14859,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97224062903477682</v>
+        <v>0.8227636863214034</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -14851,7 +14874,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56839644064348249</v>
+        <v>0.58256397641598578</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -14866,7 +14889,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12667849052609026</v>
+        <v>0.11469365076766014</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -14881,7 +14904,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66424043720662618</v>
+        <v>0.8997307561943787</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -14896,7 +14919,7 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91899343127721178</v>
+        <v>0.98938848103688559</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -14911,7 +14934,7 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47625528593626576</v>
+        <v>0.94842442544391625</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -14926,7 +14949,7 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97926344689595035</v>
+        <v>0.4258038074459497</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -14941,7 +14964,7 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36998167209816435</v>
+        <v>0.94248799000496375</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -14953,7 +14976,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10404552452797688</v>
+        <v>0.87287721656674555</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -14965,7 +14988,7 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48019820637984256</v>
+        <v>4.0419099418792181E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -14977,7 +15000,7 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93036316417924747</v>
+        <v>0.40359170879547779</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -14989,7 +15012,7 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53741161029832174</v>
+        <v>0.51189430834289518</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -15001,7 +15024,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85883485719099606</v>
+        <v>6.8403533284793205E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -15013,7 +15036,7 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15710287738182871</v>
+        <v>0.94257632916538703</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -15025,7 +15048,7 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13216543009462955</v>
+        <v>0.83477382038339776</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -15037,7 +15060,7 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53433103015883454</v>
+        <v>0.82404132021379095</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -15049,7 +15072,7 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38172445475308403</v>
+        <v>0.64008773320355272</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -15061,7 +15084,7 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55655254771266194</v>
+        <v>0.11534005820106608</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -15073,7 +15096,7 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85080302673667152</v>
+        <v>0.86583560044242125</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -15085,7 +15108,7 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64333865373801091</v>
+        <v>0.12537933015414571</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -15097,7 +15120,7 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47719721064056841</v>
+        <v>0.20251362742788848</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
@@ -15109,7 +15132,7 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37415381849399654</v>
+        <v>0.79581436210324752</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
@@ -15121,7 +15144,7 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12242114729008569</v>
+        <v>0.69703365065530576</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
@@ -15133,7 +15156,7 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38702885070366067</v>
+        <v>0.29133441291733531</v>
       </c>
     </row>
   </sheetData>
@@ -15184,7 +15207,7 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D46" ca="1" si="0">RAND()</f>
-        <v>0.48916153255975869</v>
+        <v>0.46970863585598011</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -15199,7 +15222,7 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63567924544410681</v>
+        <v>0.85992828867111681</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -15214,7 +15237,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12118857591943055</v>
+        <v>0.84380092969889753</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -15229,7 +15252,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2469995922535162</v>
+        <v>0.25598258893622994</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -15244,7 +15267,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66646673891624186</v>
+        <v>0.20350639685988636</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -15259,7 +15282,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46140316545309912</v>
+        <v>0.73527784505492466</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -15274,7 +15297,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64712493018839279</v>
+        <v>0.34001300554292369</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -15289,7 +15312,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44018103371652195</v>
+        <v>0.5069092624301087</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -15304,7 +15327,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31846250416458244</v>
+        <v>0.20176649139762681</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -15319,7 +15342,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25525474373752033</v>
+        <v>0.34291247978057982</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -15334,7 +15357,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81395585953980387</v>
+        <v>0.73328246281202636</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -15349,7 +15372,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11220190534323282</v>
+        <v>0.9036178094727747</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -15364,7 +15387,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42671493317627318</v>
+        <v>0.50755822375317672</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -15379,7 +15402,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99258555128096682</v>
+        <v>0.95277635391977322</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -15394,7 +15417,7 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64774788903831837</v>
+        <v>0.42853714450239488</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -15409,7 +15432,7 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12297945201038085</v>
+        <v>0.45511263697414617</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -15424,7 +15447,7 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>5.608596873378735E-2</v>
+        <v>0.94079006166095591</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -15439,7 +15462,7 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76279360871758362</v>
+        <v>0.87580430255120423</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -15454,7 +15477,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0945553741669682E-2</v>
+        <v>0.71117115439331713</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -15469,7 +15492,7 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82603519420455696</v>
+        <v>0.61421767371184277</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -15484,7 +15507,7 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98157197643114835</v>
+        <v>0.20274412294907762</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -15499,7 +15522,7 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46777071132691872</v>
+        <v>0.20135079578798976</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -15511,7 +15534,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99210076983212037</v>
+        <v>0.8456412709415172</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -15526,7 +15549,7 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86726122270883788</v>
+        <v>0.42845400803945921</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -15538,7 +15561,7 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39438856139617995</v>
+        <v>0.95170623266222265</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -15550,7 +15573,7 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96564017557703385</v>
+        <v>4.1477112659220605E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -15562,7 +15585,7 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5151078494269155E-2</v>
+        <v>0.21446795412316766</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -15574,7 +15597,7 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8557109326886079E-2</v>
+        <v>0.46750808264225863</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -15586,7 +15609,7 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75758600439239132</v>
+        <v>0.31957573508974824</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -15598,7 +15621,7 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93377565423278419</v>
+        <v>0.81417898794446752</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -15610,7 +15633,7 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4629523412820481</v>
+        <v>0.21662469195858558</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
@@ -15622,7 +15645,7 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75819488550716585</v>
+        <v>0.27839376389570236</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
@@ -15634,7 +15657,7 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19901159767282584</v>
+        <v>0.88128675547725888</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
@@ -15646,7 +15669,7 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55997357846303342</v>
+        <v>0.39718849517464816</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
@@ -15658,7 +15681,7 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58452260613612361</v>
+        <v>0.48156515250638188</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
@@ -15670,7 +15693,7 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1501092536513764</v>
+        <v>0.64989881327366639</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
@@ -15682,7 +15705,7 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67139836577366674</v>
+        <v>0.9841368719291208</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
@@ -15694,7 +15717,7 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20239355686860605</v>
+        <v>0.12404058778132265</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
@@ -15706,7 +15729,7 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57048707191143311</v>
+        <v>0.84018102124562177</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
@@ -15718,7 +15741,7 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28096393211255299</v>
+        <v>9.0938645408148E-2</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
@@ -15730,7 +15753,7 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14616665811979779</v>
+        <v>0.97349974455800081</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
@@ -15742,7 +15765,7 @@
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67847523316628633</v>
+        <v>0.98138690117198257</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
@@ -15754,7 +15777,7 @@
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1891689702597783</v>
+        <v>0.18431282924196546</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
@@ -15766,7 +15789,7 @@
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29702816115567832</v>
+        <v>0.84501528510626511</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
@@ -15778,7 +15801,7 @@
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11601166610279745</v>
+        <v>0.25997643026755501</v>
       </c>
     </row>
   </sheetData>
@@ -15829,7 +15852,7 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D33" ca="1" si="0">RAND()</f>
-        <v>0.3983852126313786</v>
+        <v>0.41295306640850959</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -15844,7 +15867,7 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27952961385061725</v>
+        <v>0.60025594586218156</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -15859,7 +15882,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18950073996319472</v>
+        <v>0.53690136158312585</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -15874,7 +15897,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93425118456687184</v>
+        <v>0.38615741647665236</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -15889,7 +15912,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96407353570966936</v>
+        <v>0.56990266990352756</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -15904,7 +15927,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37182210621390155</v>
+        <v>0.81905284858614391</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -15919,7 +15942,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75724099536902223</v>
+        <v>0.58358136087649704</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -15934,7 +15957,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98784680159968596</v>
+        <v>0.91883106434667483</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -15949,7 +15972,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99365943373128274</v>
+        <v>0.22924440254916167</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -15964,7 +15987,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29215849295439167</v>
+        <v>0.3517028879821632</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -15979,7 +16002,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28211044150283604</v>
+        <v>0.6173511230428429</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -15994,7 +16017,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0424746174626538E-2</v>
+        <v>0.96888626546001966</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -16009,7 +16032,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41821390859306373</v>
+        <v>0.78858493557933129</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -16024,7 +16047,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66253253858474992</v>
+        <v>0.64868361797750562</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -16039,7 +16062,7 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85686799961902349</v>
+        <v>0.24995815222514028</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -16051,7 +16074,7 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23686018667601672</v>
+        <v>0.85985906446643456</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
@@ -16063,7 +16086,7 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1398055686444271E-2</v>
+        <v>0.34362024955135162</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
@@ -16075,7 +16098,7 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12414139789067802</v>
+        <v>0.20942680069589581</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
@@ -16087,7 +16110,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23852504526474094</v>
+        <v>6.7396397861507196E-2</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -16099,7 +16122,7 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10656386350813341</v>
+        <v>0.24857688764185282</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
@@ -16111,7 +16134,7 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84289666796315466</v>
+        <v>8.7067484310916043E-2</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
@@ -16123,7 +16146,7 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40065293604863517</v>
+        <v>0.30889888425090251</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
@@ -16135,7 +16158,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47006426632078224</v>
+        <v>0.99519580328389468</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
@@ -16147,7 +16170,7 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87949807880406927</v>
+        <v>0.76292977125270101</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
@@ -16159,7 +16182,7 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85524261169941729</v>
+        <v>0.58134658185391397</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
@@ -16171,7 +16194,7 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82587401490212442</v>
+        <v>0.87357962990281535</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
@@ -16183,7 +16206,7 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3943695428075098E-2</v>
+        <v>0.66064791161354131</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
@@ -16195,7 +16218,7 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34762503172414116</v>
+        <v>0.64119234689807403</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
@@ -16207,7 +16230,7 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46388976129737369</v>
+        <v>0.25671986976585082</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
@@ -16219,7 +16242,7 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48173065164429241</v>
+        <v>0.65034917795571312</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
@@ -16231,7 +16254,7 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16087959371768601</v>
+        <v>0.79375095250001892</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
@@ -16243,7 +16266,7 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54756202265543796</v>
+        <v>0.77119961100334311</v>
       </c>
     </row>
   </sheetData>
@@ -16293,7 +16316,7 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D41" ca="1" si="0">RAND()</f>
-        <v>0.20535552717279926</v>
+        <v>1.1905413916701746E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -16308,7 +16331,7 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2681505256598018E-2</v>
+        <v>0.36114134966814626</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -16323,7 +16346,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83977625325495164</v>
+        <v>0.82523321290751073</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -16338,7 +16361,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97637665564003107</v>
+        <v>0.81461589219719244</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -16353,7 +16376,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33792676831343837</v>
+        <v>0.65877556473393317</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -16368,7 +16391,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80118853643919674</v>
+        <v>0.80309264795326296</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -16383,7 +16406,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45081284635955443</v>
+        <v>0.16172537999206615</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -16398,7 +16421,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17524670695199362</v>
+        <v>0.18217556223978604</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -16413,7 +16436,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13233786838428629</v>
+        <v>1.6563140210723803E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -16428,7 +16451,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13480929574138545</v>
+        <v>0.12784397124036573</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -16443,7 +16466,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1156247470204147</v>
+        <v>0.87197246715742438</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -16458,7 +16481,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2668066715089585E-2</v>
+        <v>0.68337632739624943</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -16473,7 +16496,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90212601015080784</v>
+        <v>0.85839238991592504</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -16488,7 +16511,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54833115903495355</v>
+        <v>0.55431538254340929</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -16503,7 +16526,7 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60134708234655809</v>
+        <v>0.92715788487718398</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -16518,7 +16541,7 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25415194105333161</v>
+        <v>8.1827093672991458E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -16533,7 +16556,7 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71811531297334896</v>
+        <v>0.16024111707275845</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -16548,7 +16571,7 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19270287194908209</v>
+        <v>0.47591834131431798</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -16560,7 +16583,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80923740706346403</v>
+        <v>0.25922021693130937</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -16572,7 +16595,7 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43708015346566009</v>
+        <v>0.95812998388703907</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -16584,7 +16607,7 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0829270753896623E-2</v>
+        <v>0.66696297649077596</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -16596,7 +16619,7 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35398096050055572</v>
+        <v>0.6585992728530432</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -16608,7 +16631,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45790081164497376</v>
+        <v>0.37224679972695451</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -16620,7 +16643,7 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4335432201989865</v>
+        <v>0.89581249230357984</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -16632,7 +16655,7 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42989574632757088</v>
+        <v>0.26711400694129817</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -16644,7 +16667,7 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42768150728563459</v>
+        <v>0.43805875260872518</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -16656,7 +16679,7 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94390240764128708</v>
+        <v>0.86524339701631059</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -16668,7 +16691,7 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5580468230187474E-3</v>
+        <v>0.34081777557323989</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -16680,7 +16703,7 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95719792809792115</v>
+        <v>0.27557636530605034</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -16692,7 +16715,7 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.128242033994583</v>
+        <v>0.54787348977570949</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -16704,7 +16727,7 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5896439918805445</v>
+        <v>0.43989894062864088</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
@@ -16716,7 +16739,7 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98698253182782902</v>
+        <v>0.47623443408314148</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
@@ -16728,7 +16751,7 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23507874093851933</v>
+        <v>0.5254083126445207</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
@@ -16740,7 +16763,7 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4024338517993733</v>
+        <v>0.40901039822596419</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
@@ -16752,7 +16775,7 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27720910448812675</v>
+        <v>2.3798416944135203E-3</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
@@ -16764,7 +16787,7 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8564905734660575</v>
+        <v>5.0391862274641652E-2</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
@@ -16776,7 +16799,7 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36089244629277817</v>
+        <v>0.87592964061885581</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
@@ -16788,7 +16811,7 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28270788020500692</v>
+        <v>0.71240291876256068</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
@@ -16800,7 +16823,7 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69075938429875172</v>
+        <v>0.34196869314659095</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
@@ -16812,7 +16835,7 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36283652547880252</v>
+        <v>0.133671886888997</v>
       </c>
     </row>
   </sheetData>
